--- a/LLAFramework/Assets/ReunionMovement/ExcelTool/Editor/Resources/ExcelTools/InputSystemConfig.xlsx
+++ b/LLAFramework/Assets/ReunionMovement/ExcelTool/Editor/Resources/ExcelTools/InputSystemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="InputSystemConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>索引</t>
   </si>
@@ -89,7 +89,7 @@
     <t>&lt;Keyboard&gt;/w</t>
   </si>
   <si>
-    <t>Press(behavior=PressOnly)</t>
+    <t>Press(behavior=0)</t>
   </si>
   <si>
     <t>Default</t>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>Hold(duration=3)</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>&lt;Keyboard&gt;/upArrow</t>
+  </si>
+  <si>
+    <t>&lt;Keyboard&gt;/downArrow</t>
+  </si>
+  <si>
+    <t>&lt;Keyboard&gt;/leftArrow</t>
+  </si>
+  <si>
+    <t>&lt;Keyboard&gt;/rightArrow</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1239,9 +1254,7 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
+      <c r="F5"/>
       <c r="H5" t="s">
         <v>21</v>
       </c>
@@ -1262,9 +1275,7 @@
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
+      <c r="F6"/>
       <c r="H6" t="s">
         <v>21</v>
       </c>
@@ -1285,9 +1296,7 @@
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
+      <c r="F7"/>
       <c r="H7" t="s">
         <v>21</v>
       </c>
@@ -1404,6 +1413,92 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100010</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100014</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>100011</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100015</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14"/>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>100012</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100016</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15"/>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>100013</v>
+      </c>
+      <c r="C16" s="1">
+        <v>100017</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16"/>
+      <c r="H16" t="s">
         <v>21</v>
       </c>
     </row>
